--- a/biology/Botanique/Ferraria/Ferraria.xlsx
+++ b/biology/Botanique/Ferraria/Ferraria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ferraria est un genre de plantes à fleurs monocotylédones de la famille des Iridaceae, originaire d'Afrique tropicale et australe [1]. Ce sont des plantes herbacées à bulbe atteignant 30–45 cm de haut. Certaines espèces ont une odeur désagréable semblable à celle de la viande pourrie et sont pollinisées par les mouches, tandis que d'autres ont une odeur agréable. Le nom du genre est un hommage au botaniste et artiste botanique jésuite italien Giovanni Baptista Ferrari [2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ferraria est un genre de plantes à fleurs monocotylédones de la famille des Iridaceae, originaire d'Afrique tropicale et australe . Ce sont des plantes herbacées à bulbe atteignant 30–45 cm de haut. Certaines espèces ont une odeur désagréable semblable à celle de la viande pourrie et sont pollinisées par les mouches, tandis que d'autres ont une odeur agréable. Le nom du genre est un hommage au botaniste et artiste botanique jésuite italien Giovanni Baptista Ferrari .
 Ils sont cultivés comme plantes ornementales dans les jardins des régions subtropicales.
-Espèce [1]
+Espèce 
 Ferraria brevifolia G.J.Lewis - Province du Cap en Afrique du Sud
 Ferraria candelabrum (Baker) Rendle - Angola, Zambie
 Ferraria crispa Burm. (syn. F. undulata ) - Province du Cap ; naturalisé en Espagne, Australie, Îles Canaries, Madère
